--- a/archivo.xlsx
+++ b/archivo.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">hola como te va </t>
   </si>
@@ -33,6 +33,9 @@
   <si>
     <t>mensaje</t>
   </si>
+  <si>
+    <t>Te amo corazonsote mio de mi</t>
+  </si>
 </sst>
 </file>
 
@@ -352,9 +355,7 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal style="none">
-        <color rgb="FF000000"/>
-      </diagonal>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -369,25 +370,33 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -402,7 +411,9 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="thin">
@@ -417,7 +428,9 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <left style="double">
@@ -432,13 +445,17 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
     <border>
       <top style="thin">
@@ -447,7 +464,9 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none">
+        <color rgb="FF000000"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -824,10 +843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
@@ -850,6 +869,14 @@
       </c>
       <c r="B3" s="0" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="0">
+        <v>56936109414</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/archivo.xlsx
+++ b/archivo.xlsx
@@ -24,10 +24,10 @@
     <t>mensaje</t>
   </si>
   <si>
-    <t>Hola hola</t>
+    <t>Este mensaje significa que salio bien</t>
   </si>
   <si>
-    <t>Otro mensaje distinto para probar</t>
+    <t>Mensaje para validar que funcione</t>
   </si>
 </sst>
 </file>
@@ -380,13 +380,13 @@
       <c r="A3">
         <v>56932847456</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>56936109414</v>
+        <v>56976495488</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
